--- a/data/trans_dic/P55$auxiliar-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$auxiliar-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,57 +730,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 14,82</t>
+          <t>4,44; 14,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 12,55</t>
+          <t>2,63; 12,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,74; 29,91</t>
+          <t>16,04; 29,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 8,57</t>
+          <t>2,35; 8,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,6; 26,6</t>
+          <t>15,42; 25,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 12,23</t>
+          <t>4,57; 12,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,23; 30,04</t>
+          <t>21,86; 29,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,68</t>
+          <t>1,68; 5,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,39; 20,72</t>
+          <t>13,05; 20,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,23</t>
+          <t>4,58; 10,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,73; 28,21</t>
+          <t>21,47; 28,32</t>
         </is>
       </c>
     </row>
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,77</t>
+          <t>0,0; 25,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,97</t>
+          <t>0,0; 21,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 23,95</t>
+          <t>7,72; 25,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,32 +895,32 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,68</t>
+          <t>0,0; 9,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 30,67</t>
+          <t>15,52; 31,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,06</t>
+          <t>0,0; 15,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,43</t>
+          <t>0,0; 12,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,92</t>
+          <t>0,0; 8,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 26,04</t>
+          <t>13,82; 25,56</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 32,91</t>
+          <t>2,92; 34,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 17,46</t>
+          <t>1,36; 18,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 3,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 13,59</t>
+          <t>4,28; 14,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,63</t>
+          <t>2,08; 9,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 23,61</t>
+          <t>13,81; 23,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,38</t>
+          <t>1,87; 7,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,0; 23,38</t>
+          <t>14,48; 24,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 10,81</t>
+          <t>3,77; 10,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,3; 27,84</t>
+          <t>21,85; 28,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,09</t>
+          <t>1,62; 5,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 18,71</t>
+          <t>11,52; 18,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,16</t>
+          <t>3,86; 9,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,98; 25,65</t>
+          <t>19,81; 25,45</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda los Servicios Sociales cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10893</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5811</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22114</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9646</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>51695</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16342</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>66407</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9646</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>62588</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22153</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>88521</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1763</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5510; 18047</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2458; 11225</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15664; 28902</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4835; 16992</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>38682; 64330</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9528; 26403</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56331; 76497</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5186; 18258</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>48932; 77630</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13834; 32154</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>76278; 100645</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6433</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12532</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18966</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3666</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4266</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1614</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3320; 10867</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2113</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5082</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8484; 17296</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4341</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4993</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6038</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13500; 24971</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1813</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1813</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2177</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1154</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1565</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1151</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1815</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1603</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2067</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>408; 4840</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1704</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>395; 5458</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11846</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5811</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>28548</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9646</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>51695</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17553</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80752</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10482</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>63540</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23364</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>109300</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4607</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6250; 20530</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2529; 12082</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>21514; 35899</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4324; 17142</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>40036; 67156</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10079; 28185</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>71295; 92708</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5776; 19551</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>48667; 78905</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>15005; 35978</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>95499; 122702</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>